--- a/数据整理/stocks/A股/上证主板/600048-保利地产.xlsx
+++ b/数据整理/stocks/A股/上证主板/600048-保利地产.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16594,7 +16595,6 @@
           <t>国融融君灵活配置混合C</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>84.76</t>
@@ -16626,7 +16626,6 @@
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
           <t>56.82</t>
@@ -16658,7 +16657,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -16674,6 +16672,5530 @@
       </c>
       <c r="H190" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>384.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.2908</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.0338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2849</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3594</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2699</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0417</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9934</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9907</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8420</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8239</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7226</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6996</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6858</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6734</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5601</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003591</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>253010</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国联安安心成长混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003592</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600048-保利地产.xlsx
+++ b/数据整理/stocks/A股/上证主板/600048-保利地产.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22201,4 +22202,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>189</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>236</v>
+      </c>
+      <c r="D4" t="n">
+        <v>121.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600048-保利地产.xlsx
+++ b/数据整理/stocks/A股/上证主板/600048-保利地产.xlsx
@@ -22226,12 +22226,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>
